--- a/swapi_data.xlsx
+++ b/swapi_data.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,11 +515,6 @@
           <t>url</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>full_name</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -602,11 +597,6 @@
           <t>https://swapi.dev/api/people/1/</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Luke Skywalker</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -689,11 +679,6 @@
           <t>https://swapi.dev/api/people/2/</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>C-3PO</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -776,11 +761,6 @@
           <t>https://swapi.dev/api/people/3/</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>R2-D2</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -863,11 +843,6 @@
           <t>https://swapi.dev/api/people/4/</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Darth Vader</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -950,11 +925,6 @@
           <t>https://swapi.dev/api/people/5/</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Leia Organa</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1037,11 +1007,6 @@
           <t>https://swapi.dev/api/people/6/</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Owen Lars</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1124,11 +1089,6 @@
           <t>https://swapi.dev/api/people/7/</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Beru Whitesun lars</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1211,11 +1171,6 @@
           <t>https://swapi.dev/api/people/8/</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>R5-D4</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1298,11 +1253,6 @@
           <t>https://swapi.dev/api/people/9/</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Biggs Darklighter</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1385,11 +1335,6 @@
           <t>https://swapi.dev/api/people/10/</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Obi-Wan Kenobi</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1472,11 +1417,6 @@
           <t>https://swapi.dev/api/people/11/</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Anakin Skywalker</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1559,11 +1499,6 @@
           <t>https://swapi.dev/api/people/12/</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>Wilhuff Tarkin</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1646,11 +1581,6 @@
           <t>https://swapi.dev/api/people/13/</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>Chewbacca</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1733,11 +1663,6 @@
           <t>https://swapi.dev/api/people/14/</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>Han Solo</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1820,11 +1745,6 @@
           <t>https://swapi.dev/api/people/15/</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>Greedo</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1907,11 +1827,6 @@
           <t>https://swapi.dev/api/people/16/</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>Jabba Desilijic Tiure</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1994,11 +1909,6 @@
           <t>https://swapi.dev/api/people/18/</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Wedge Antilles</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2081,11 +1991,6 @@
           <t>https://swapi.dev/api/people/19/</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>Jek Tono Porkins</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2168,11 +2073,6 @@
           <t>https://swapi.dev/api/people/20/</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>Yoda</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2255,11 +2155,6 @@
           <t>https://swapi.dev/api/people/21/</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>Palpatine</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2342,11 +2237,6 @@
           <t>https://swapi.dev/api/people/22/</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>Boba Fett</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2429,11 +2319,6 @@
           <t>https://swapi.dev/api/people/23/</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>IG-88</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2516,11 +2401,6 @@
           <t>https://swapi.dev/api/people/24/</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>Bossk</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2603,11 +2483,6 @@
           <t>https://swapi.dev/api/people/25/</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>Lando Calrissian</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2690,11 +2565,6 @@
           <t>https://swapi.dev/api/people/26/</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>Lobot</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2777,11 +2647,6 @@
           <t>https://swapi.dev/api/people/27/</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>Ackbar</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2864,11 +2729,6 @@
           <t>https://swapi.dev/api/people/28/</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>Mon Mothma</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2951,11 +2811,6 @@
           <t>https://swapi.dev/api/people/29/</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>Arvel Crynyd</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3038,11 +2893,6 @@
           <t>https://swapi.dev/api/people/30/</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>Wicket Systri Warrick</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3125,11 +2975,6 @@
           <t>https://swapi.dev/api/people/31/</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>Nien Nunb</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3212,11 +3057,6 @@
           <t>https://swapi.dev/api/people/32/</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>Qui-Gon Jinn</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3299,11 +3139,6 @@
           <t>https://swapi.dev/api/people/33/</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>Nute Gunray</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3386,11 +3221,6 @@
           <t>https://swapi.dev/api/people/34/</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>Finis Valorum</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3473,11 +3303,6 @@
           <t>https://swapi.dev/api/people/35/</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>Padmé Amidala</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3560,11 +3385,6 @@
           <t>https://swapi.dev/api/people/36/</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>Jar Jar Binks</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3647,11 +3467,6 @@
           <t>https://swapi.dev/api/people/37/</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>Roos Tarpals</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3734,11 +3549,6 @@
           <t>https://swapi.dev/api/people/38/</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>Rugor Nass</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3821,11 +3631,6 @@
           <t>https://swapi.dev/api/people/39/</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>Ric Olié</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3908,11 +3713,6 @@
           <t>https://swapi.dev/api/people/40/</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>Watto</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3995,11 +3795,6 @@
           <t>https://swapi.dev/api/people/41/</t>
         </is>
       </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>Sebulba</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4082,11 +3877,6 @@
           <t>https://swapi.dev/api/people/42/</t>
         </is>
       </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>Quarsh Panaka</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4169,11 +3959,6 @@
           <t>https://swapi.dev/api/people/43/</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>Shmi Skywalker</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4256,11 +4041,6 @@
           <t>https://swapi.dev/api/people/44/</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>Darth Maul</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4343,11 +4123,6 @@
           <t>https://swapi.dev/api/people/45/</t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>Bib Fortuna</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4430,11 +4205,6 @@
           <t>https://swapi.dev/api/people/46/</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>Ayla Secura</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4517,11 +4287,6 @@
           <t>https://swapi.dev/api/people/47/</t>
         </is>
       </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>Ratts Tyerel</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4604,11 +4369,6 @@
           <t>https://swapi.dev/api/people/48/</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>Dud Bolt</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4691,11 +4451,6 @@
           <t>https://swapi.dev/api/people/49/</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>Gasgano</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4778,11 +4533,6 @@
           <t>https://swapi.dev/api/people/50/</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>Ben Quadinaros</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4865,11 +4615,6 @@
           <t>https://swapi.dev/api/people/51/</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>Mace Windu</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4952,11 +4697,6 @@
           <t>https://swapi.dev/api/people/52/</t>
         </is>
       </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>Ki-Adi-Mundi</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5039,11 +4779,6 @@
           <t>https://swapi.dev/api/people/53/</t>
         </is>
       </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>Kit Fisto</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5126,11 +4861,6 @@
           <t>https://swapi.dev/api/people/54/</t>
         </is>
       </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>Eeth Koth</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5213,11 +4943,6 @@
           <t>https://swapi.dev/api/people/55/</t>
         </is>
       </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>Adi Gallia</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5300,11 +5025,6 @@
           <t>https://swapi.dev/api/people/56/</t>
         </is>
       </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>Saesee Tiin</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5387,11 +5107,6 @@
           <t>https://swapi.dev/api/people/57/</t>
         </is>
       </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>Yarael Poof</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5474,11 +5189,6 @@
           <t>https://swapi.dev/api/people/58/</t>
         </is>
       </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>Plo Koon</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5561,11 +5271,6 @@
           <t>https://swapi.dev/api/people/59/</t>
         </is>
       </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>Mas Amedda</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5648,11 +5353,6 @@
           <t>https://swapi.dev/api/people/60/</t>
         </is>
       </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>Gregar Typho</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5735,11 +5435,6 @@
           <t>https://swapi.dev/api/people/61/</t>
         </is>
       </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>Cordé</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5822,11 +5517,6 @@
           <t>https://swapi.dev/api/people/62/</t>
         </is>
       </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>Cliegg Lars</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5909,11 +5599,6 @@
           <t>https://swapi.dev/api/people/63/</t>
         </is>
       </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>Poggle the Lesser</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5996,11 +5681,6 @@
           <t>https://swapi.dev/api/people/64/</t>
         </is>
       </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>Luminara Unduli</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6083,11 +5763,6 @@
           <t>https://swapi.dev/api/people/65/</t>
         </is>
       </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>Barriss Offee</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6170,11 +5845,6 @@
           <t>https://swapi.dev/api/people/66/</t>
         </is>
       </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>Dormé</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6257,11 +5927,6 @@
           <t>https://swapi.dev/api/people/67/</t>
         </is>
       </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>Dooku</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6344,11 +6009,6 @@
           <t>https://swapi.dev/api/people/68/</t>
         </is>
       </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>Bail Prestor Organa</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6431,11 +6091,6 @@
           <t>https://swapi.dev/api/people/69/</t>
         </is>
       </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>Jango Fett</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6518,11 +6173,6 @@
           <t>https://swapi.dev/api/people/70/</t>
         </is>
       </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>Zam Wesell</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6605,11 +6255,6 @@
           <t>https://swapi.dev/api/people/71/</t>
         </is>
       </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>Dexter Jettster</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6692,11 +6337,6 @@
           <t>https://swapi.dev/api/people/72/</t>
         </is>
       </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>Lama Su</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6779,11 +6419,6 @@
           <t>https://swapi.dev/api/people/73/</t>
         </is>
       </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>Taun We</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6866,11 +6501,6 @@
           <t>https://swapi.dev/api/people/74/</t>
         </is>
       </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>Jocasta Nu</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6953,11 +6583,6 @@
           <t>https://swapi.dev/api/people/75/</t>
         </is>
       </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>R4-P17</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7040,11 +6665,6 @@
           <t>https://swapi.dev/api/people/76/</t>
         </is>
       </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>Wat Tambor</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -7127,11 +6747,6 @@
           <t>https://swapi.dev/api/people/77/</t>
         </is>
       </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>San Hill</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -7214,11 +6829,6 @@
           <t>https://swapi.dev/api/people/78/</t>
         </is>
       </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>Shaak Ti</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -7301,11 +6911,6 @@
           <t>https://swapi.dev/api/people/79/</t>
         </is>
       </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>Grievous</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -7388,11 +6993,6 @@
           <t>https://swapi.dev/api/people/80/</t>
         </is>
       </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>Tarfful</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -7475,11 +7075,6 @@
           <t>https://swapi.dev/api/people/81/</t>
         </is>
       </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>Raymus Antilles</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -7562,11 +7157,6 @@
           <t>https://swapi.dev/api/people/82/</t>
         </is>
       </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>Sly Moore</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -7647,11 +7237,6 @@
       <c r="P83" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/83/</t>
-        </is>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>Tion Medon</t>
         </is>
       </c>
     </row>
@@ -7787,8 +7372,10 @@
           <t>1</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v>200000</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>200000</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -7857,8 +7444,10 @@
           <t>40</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v>2000000000</v>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2000000000</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -7927,8 +7516,10 @@
           <t>8</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v>1000</v>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -7997,7 +7588,11 @@
           <t>100</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>[]</t>
@@ -8065,7 +7660,11 @@
           <t>8</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>[]</t>
@@ -8133,8 +7732,10 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v>6000000</v>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>6000000</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -8203,8 +7804,10 @@
           <t>8</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v>30000000</v>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>30000000</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -8273,8 +7876,10 @@
           <t>12</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v>4500000000</v>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>4500000000</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -8343,8 +7948,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v>1000000000000</v>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1000000000000</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -8413,8 +8020,10 @@
           <t>100</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v>1000000000</v>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1000000000</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -8483,8 +8092,10 @@
           <t>5</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v>100000000000</v>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>100000000000</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -8553,8 +8164,10 @@
           <t>0.9</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v>95000000</v>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>95000000</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -8623,8 +8236,10 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v>20000</v>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -8693,8 +8308,10 @@
           <t>60</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v>45000000</v>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>45000000</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -8763,8 +8380,10 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v>1000000</v>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1000000</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -8833,8 +8452,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v>19000000</v>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>19000000</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -8903,8 +8524,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I18" t="n">
-        <v>8500000</v>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>8500000</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -8973,8 +8596,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I19" t="n">
-        <v>10000000</v>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>10000000</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -9043,8 +8668,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I20" t="n">
-        <v>1400000000</v>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1400000000</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -9113,7 +8740,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/people/10/']</t>
@@ -9181,8 +8812,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I22" t="n">
-        <v>22000000000</v>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>22000000000</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -9251,8 +8884,10 @@
           <t>70</t>
         </is>
       </c>
-      <c r="I23" t="n">
-        <v>3000000000</v>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>3000000000</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -9321,8 +8956,10 @@
           <t>60</t>
         </is>
       </c>
-      <c r="I24" t="n">
-        <v>1300000000</v>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1300000000</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -9391,8 +9028,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I25" t="n">
-        <v>7000000000</v>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>7000000000</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -9461,8 +9100,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I26" t="n">
-        <v>1000</v>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -9531,8 +9172,10 @@
           <t>98</t>
         </is>
       </c>
-      <c r="I27" t="n">
-        <v>62000000</v>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>62000000</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -9601,8 +9244,10 @@
           <t>10</t>
         </is>
       </c>
-      <c r="I28" t="n">
-        <v>4000000000</v>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>4000000000</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -9671,7 +9316,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/people/20/', 'https://swapi.dev/api/people/23/', 'https://swapi.dev/api/people/29/', 'https://swapi.dev/api/people/32/', 'https://swapi.dev/api/people/75/']</t>
@@ -9739,8 +9388,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I30" t="n">
-        <v>42000000</v>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>42000000</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -9809,8 +9460,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I31" t="n">
-        <v>300000000</v>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>300000000</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -9879,8 +9532,10 @@
           <t>100</t>
         </is>
       </c>
-      <c r="I32" t="n">
-        <v>27000000000</v>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>27000000000</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -9949,8 +9604,10 @@
           <t>40</t>
         </is>
       </c>
-      <c r="I33" t="n">
-        <v>1200000000</v>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1200000000</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -10019,8 +9676,10 @@
           <t>5</t>
         </is>
       </c>
-      <c r="I34" t="n">
-        <v>18500000000</v>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>18500000000</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -10089,8 +9748,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I35" t="n">
-        <v>11000000</v>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>11000000</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -10159,8 +9820,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I36" t="n">
-        <v>2000000000</v>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2000000000</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -10229,8 +9892,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I37" t="n">
-        <v>5200</v>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>5200</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -10299,8 +9964,10 @@
           <t>5</t>
         </is>
       </c>
-      <c r="I38" t="n">
-        <v>1500000000</v>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1500000000</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -10369,7 +10036,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/people/47/']</t>
@@ -10437,8 +10108,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I40" t="n">
-        <v>421000000</v>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>421000000</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -10507,7 +10180,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="J41" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/people/49/']</t>
@@ -10575,8 +10252,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -10645,8 +10324,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I43" t="n">
-        <v>705300</v>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>705300</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -10715,8 +10396,10 @@
           <t>20</t>
         </is>
       </c>
-      <c r="I44" t="n">
-        <v>450000000</v>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>450000000</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -10785,8 +10468,10 @@
           <t>80</t>
         </is>
       </c>
-      <c r="I45" t="n">
-        <v>500000000</v>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>500000000</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -10855,7 +10540,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="J46" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/people/54/']</t>
@@ -10923,7 +10612,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="J47" t="inlineStr">
         <is>
           <t>[]</t>
@@ -10991,7 +10684,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="J48" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/people/56/']</t>
@@ -11059,7 +10756,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="J49" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/people/57/']</t>
@@ -11127,7 +10828,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="J50" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/people/58/']</t>
@@ -11195,8 +10900,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I51" t="n">
-        <v>3500000000</v>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>3500000000</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -11265,7 +10972,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="J52" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/people/64/', 'https://swapi.dev/api/people/65/']</t>
@@ -11333,7 +11044,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/people/67/']</t>
@@ -11401,7 +11116,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/people/69/']</t>
@@ -11469,7 +11188,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="J55" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/people/70/']</t>
@@ -11537,8 +11260,10 @@
           <t>100</t>
         </is>
       </c>
-      <c r="I56" t="n">
-        <v>500000000</v>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>500000000</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -11607,8 +11332,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I57" t="n">
-        <v>500000000000</v>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>500000000000</t>
+        </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -11677,8 +11404,10 @@
           <t>25</t>
         </is>
       </c>
-      <c r="I58" t="n">
-        <v>5000000000</v>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>5000000000</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -11747,7 +11476,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="J59" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/people/78/']</t>
@@ -11815,8 +11548,10 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I60" t="n">
-        <v>4000000000</v>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>4000000000</t>
+        </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -11885,7 +11620,11 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
       <c r="J61" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/people/82/']</t>
